--- a/500all/speech_level/speeches_CHRG-114hhrg92673.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg92673.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. The committee will come to order. Good morning. Happy New Year to everybody. The committee has not formally organized, so we have to start off in asking for unanimous consent to conduct today's hearing under the rules of the committee under the 113th Congress, and without objection, so ordered. Hopefully our colleagues, Mr. DeFazio and others will in the next week or so, be ready to come together and----</t>
   </si>
   <si>
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Better organized on the day.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>408211</t>
   </si>
   <si>
-    <t>Richard M. Nolan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nolan. Jared.</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Six years.</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Babin. Babin.</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. About 70 percent, yeah.</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hilkemann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hilkemann. Hilkemann.</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. DeFazio. And with that, I want to introduce our two witnesses today: Mr. Ray Conner, who is the president and CEO of Boeing Commercial Airplanes, The Boeing Company; and Mr. Aaron Hilkemann, I got it right that time, who is the president and CEO of Duncan Aviation. With that, Mr. Conner, I want you to go ahead and start off with your testimony.</t>
   </si>
   <si>
-    <t>Conner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conner. Thank you, Chairman Shuster. Chairman Shuster, Ranking Member DeFazio, members of the committee, thank you for this opportunity to provide Boeing's perspective as you begin the process of developing legislation to reauthorize the Federal Aviation Administration. I am Ray Conner, president and chief executive officer of Boeing Commercial Airplanes. It is an honor to be here to represent 80,000 Boeing Commercial Airplane employees and the world's largest commercial airplane manufacturer.    Mr. Chairman, I have longer remarks that, with your permission, I would like to submit for the record. My remarks this morning focus on the FAA's ongoing effort with the support of Congress to modernize the airplane certification process. They also address the importance of continuing this effort to both aviation safety and American aerospace competitiveness. Before I address that important topic, I want to make a couple general observations about the industry's shared commitment to safety.    Any discussion of U.S. aviation regulation should begin with this very important fact: Travel on a large commercial jet is the safest form of transportation in human history. More than 8 million people board airplanes daily and arrive safely at their destinations. While there have been some high-profile air tragedies of late, flying today is several orders of magnitude safer than it was 50 years ago.    In the U.S.A. today, a fatal accident occurs less than 1 out of every 45 million flights. This is an extraordinary safety record. It is a great accomplishment for the aviation industry and its regulators, and we have a shared commitment, one that is deeply embedded in the culture of our company to continue to improve. The FAA's regulatory system and oversight efforts have, of course, been critical pillars of modern aviation's extraordinary safety record. The FAA certifies all Boeing's airplane designs, our production system, and each airplane that comes off our production lines in Washington State and South Carolina.    The FAA's regulatory approach has necessarily adapted over time in an effort to ensure that its resources are deployed where they can most effectively contribute to safety in a rapidly growing and technologically complex industry. The FAA will need to draw upon this tradition of robust and efficient risk-based oversight in the decades ahead as air travel continues to grow.    The last 5 years have been a great example of how Boeing and our industry are expanding. Since 2010, we have increased our production in our factories by 56 percent to meet the strong demand for our products. In 2014, we delivered 723 airplanes to our customers, and we have announced further rate increases in our production, and we expect growth in our industry will continue due to rising demand here and abroad.    To stay ahead of the competition, Boeing will bring several new products to market in the next few years. They include the 787-10, the 737 MAX family, and the 777X. Each of these new airplanes will further improve fuel efficiency and provide other benefits to our customers and the flying public.    The introduction of each airplane will also improve aviation safety as newer and safer airplanes, with enhanced safety technologies, replace older airplanes in the fleet. Of course, each airplane will have to be certified by the FAA, and the large volume of this work poses a significant challenge for the agency. To meet the challenge, the FAA will need to continue its work to modernize its certification process. This will ensure it is making optimal risk-based decisions to deploy its resources in a way that maximize safety benefit and that simultaneously enable industry to efficiently introduce new, safe, and compliant products.    One of the important tools that the FAA has at its disposal is Organization Designation Authorization, or ODA. My written statement includes detailed information about ODA. The point I want to stress here is that ODA has served the FAA, our industry, and most importantly, the flying public very well.    Mr. Chairman, it was gratifying to see the committee recognize the value and the importance of ODA in section 312 in the last FAA reauthorization bill. As you know, this provision directed the FAA to consult with the industry to determine ways to enhance the effective use of delegation, and to consider process reforms and improvements to the certification process. The FAA has made progress since the last reauthorization, and I am grateful for the agency's leadership in driving those improvements.    As I mentioned in my written testimony, there are three areas where Congress could continue to support these efforts: Accelerating the full use of ODA authority, developing and training the FAA workforce, and increasing international harmonization and certification standards.    Mr. Chairman, I really appreciate the committee's support of the FAA's efforts to modernize the certification activities, and with the leadership of Administrator Huerta and the Members of Congress, I am confident that together we will tackle the challenges I have described, and I want to just thank everyone for the opportunity to be here today, and I am glad to answer any questions that you might have.</t>
   </si>
   <si>
@@ -328,9 +304,6 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Thank you, Mr. Chairman. And I would like to thank the chairman for elevating this issue to the full committee level because of its critical importance. And Mr. Conner, Mr. Hilkemann, thank you for being here. This certification process is critically important on our country's aviation sector, and I know you have touched on this, but for the new members, could you each elaborate on the impact of the FAA's certification process that that has on your company's ability to compete and to innovate, Mr. Conner?</t>
   </si>
   <si>
@@ -358,9 +331,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. I live in Arizona, and I spend about 10 hours a week in the air, so I thank you, Mr. Chairman, for having this hearing because I think a lot about airplane safety. But I have a really practical question. I mean, I am really concerned about certification, but you know, oftentimes--well, not too frequently, but sometimes I am on a plane and the pilot announces there is a mechanical problem and we sit on a tarmac for a couple of hours. What kind of oversight is there over that repair at that moment when we are sitting in the plane? What kind of oversight standards is there--does these certification standards apply to that?</t>
   </si>
   <si>
@@ -430,9 +400,6 @@
     <t>412454</t>
   </si>
   <si>
-    <t>Richard L. Hanna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hanna. Thank you, Chairman.    Mr. Conner, maybe you could elaborate on exactly what a risk-based approach is, because it sounds as though there is some margin there that is different than absolute perfection.</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thanks. So just to get some perspective here. I visited a small manufacturer up in Anacortes in my district, and they make a variety of components for smaller airplanes, including things called vortex generators, which I am sure Mr. Hanna knows all about since he flies smaller airplanes, but you know, the smallest one no longer than probably my thumbnail, and that has to get certified, it goes on the airplane.    For some perspective, except for the--except for the airplane itself on delivery, how many usual parts and components in a 737 approximately have to have an FAA stamp, metaphorical stamp?</t>
   </si>
   <si>
@@ -601,9 +565,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you. Mr. Rice is recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rice. Thank you, Mr. Chairman, and thank you, gentlemen, for being here today. And Mr. Conner, particularly thank you for American excellence in aviation, and for employing so many thousands of the people in South Carolina. I appreciate that very much.    Aviation is certainly a shining light of American manufacturing and one area in which we maintain our leadership role in the world. I am focused very much on American competitiveness, and I have seen over and over and over again in my 2 years here in Congress how Government regulation too often, in the name of protecting the public, makes us less competitive and actually does very little to protect the public. That being said, if we sacrifice safety in American aviation, then we won't be competitive in that area very long, so I am sure you guys have a vested interest in that and that you need to make sure that that record of safety is maintained, and you don't want to do anything to compromise that.    Now, from what I understand, Mr. Conner, you are saying that the FAA is now looking at areas that don't necessarily deal with flight safety but more things within the plane that don't deal with its flight, like the interior of the plane, the lavatories, and the kitchens.</t>
   </si>
   <si>
@@ -670,9 +631,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. OK.</t>
   </si>
   <si>
@@ -682,9 +640,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. This is an important hearing.    Mr. Conner, I note--your pages aren't numbered like my students in my law class, but it is under ``Delegated Authority.''</t>
   </si>
   <si>
@@ -778,9 +733,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman.    Thank you to both the witnesses.    Mr. Conner, I want to echo what my colleague Mr. Rice said about Boeing being an employer in his State. And thank you for what you do in the passenger side but also on the defense side to my constituents who work just across the river in Illinois from St. Louis. Anytime you would like to bring any South Carolina jobs over to Illinois, we would be happy to work with Mr. Rice on a good compromise.</t>
   </si>
   <si>
@@ -820,9 +772,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair.    Thank you to the witnesses.    Well, I can say this about most of us probably here is that we are experienced amateurs at flying; we do a lot of flying.</t>
   </si>
   <si>
@@ -946,9 +895,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. Looks can be deceiving.    Mr. Conner, Mr. Hilkemann, I appreciate you all coming forward today. And, by the way, it is good to be up close and personal here.    I have just one quick question for you. I come from a policy background but also a business background as well, and anybody who has been in business understands that time is money. My question is, and we have been all around it, and I am just wondering if there is a concrete answer: How long does it take you to manufacture a plane from start to finish under the regulatory apparatus that we have today?    And then the followup question to that is: If we implement--or FAA is able to implement this risk-based approach that you have outlined several different times, how much does that save you on a time front, or is it more of an efficiency in terms of lower costs so, therefore, you can be competitive as well?</t>
   </si>
   <si>
@@ -970,9 +916,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman.    Mr. Conner, Boeing--I am over here--I want to commend you for--it is really exciting to hear about the increase of employment and planes you are building and new orders. That is exciting. And I want to kind of follow through a little bit on Mr. Hanna's questions about foreign competition and the regulatory structure. And I realize we have agreements with them and the FAA, and I am sure the airlines get involved.    And then, also, Mr. Hilkemann, on your written testimony, it kind of comes together a little bit. In your written testimony, you say there is frequent and redundant surveillance activities, many of which are conducted by foreign aviation authorities, duplicate similar efforts while producing low, additional value. And some of it is done by foreign authorities.    So I am trying to--you know, I think, Mr. Conner, you said that the bureaucracy sometimes, you know, takes longer, than what maybe it takes some of your foreign competitors.    And, Mr. Hilkemann, having run the largest maintenance, repair, and overhaul business in the United States, in this regard, you know, how level is the playing field? Or would you say the foreigners come in and cause the most problems? And see where I am going here. Can you kind of expound on what our challenges are to get our efficiencies in place so Mr. Conner can be competitive selling airplanes?</t>
   </si>
   <si>
@@ -1021,9 +964,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman.    Mr. Conner, you mentioned that your company had had a 56-percent increase in business over the last 5 years, and some of those years weren't the best years.    And Mr. Hilkemann, I was wondering if you have had a similar increase in business.    And the first question I have is, what do both of you gentlemen see over the next 2 or 3 years? Do you see that business increasing even faster, or what do you see in that regard?    And then I have a second question: I chaired the Aviation Subcommittee for 6 years, from January of 1995 to January of 2001, and I was hearing these same complaints back then. Mr. Hilkemann mentions inconsistent interpretation and application of regulations, lack of effective communications in dispute resolutions. I am wondering, both of you have had ODAs now.    Mr. Conner, you said for 6 years, I think.    And, Mr. Hilkemann, you said for several years.    And then you have this section 313 advisory panel that put out a report in July of 2013, a year and a half ago.    Are we making some progress? Big progress? I mean, what do you see on those things, since we were hearing these same things years ago? So those two questions from both of you.</t>
   </si>
   <si>
@@ -1045,9 +985,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Mr. Chairman, I just want to thank Mr. Conners. You build a great aircraft.</t>
   </si>
   <si>
@@ -1081,27 +1018,18 @@
     <t xml:space="preserve">    Mr. Shuster. Right.    Why don't we go ahead? We have another appearance by Dr. Dillingham. He is the Director of Physical Infrastructure Issues for the Government Accountability Office. So on the guidance of Chairman Young, we will start with Dr. Dillingham, who has, again, been a frequent visitor to us.    So Dr. Dillingham, why don't you go ahead and proceed?</t>
   </si>
   <si>
-    <t>Dillingham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dillingham. Thank you, Mr. Chairman, Ranking Member DeFazio, members of the committee. FAA has taken some important steps to address the challenges stakeholders face in getting U.S. aviation products certified for use at home and abroad. At the same time, we found that these steps are not sufficient and many key challenges remain regarding domestic certification and the consistency of regulatory interpretation.    At the time we concluded our work, FAA indicated it had completed 8 of 14 initiatives established to address the Certification Process Committee's recommendations, and 2 were on track to be completed within 3 years. I understand from Ms. Baker's testimony that FAA has now completed 10 of the initiatives. When we completed our work of the remaining initiatives, one was at risk for not meeting planned milestones, and three initiatives would not meet planned milestones, including updating the regulations under which large and small aircraft are certified. Missing these milestones increases the risk of delays in improving the certification processes for a rapidly changing and expanding industry.    Regarding regulatory certification--regulatory consistency, FAA has drafted a plan to address the Regulatory Consistency Committee's six recommendations, which are targeted at improving the consistency of how regulations are interpreted by FAA and the industry. While the plan is expected to be released sometime this month, it is being released over a year beyond its original target date of December 2013.    Moreover, some key industry stakeholders told us that although FAA briefed them on its draft implementation plan, they were disappointed that they were not asked to participate in the development of the plan, as was suggested in the 2012 FAA Reauthorization Act. Stakeholders also expressed concerns about FAA's decision to close two of the committee's recommendations before the plan is finalized, including the recommendation on improving the clarity of FAA's final rules.    Turning to foreign approval of U.S. aviation products. The U.S. has historically been viewed as the gold standard for the approval of aviation products, with some countries accepting FAA's approval as sufficient evidence that the product is safe for use in their country. Other countries, however, do not accept FAA's certification, and more often, these countries are conducting their own approval processes for U.S. products. Stakeholders told us that such practices result in U.S. companies facing uncertainty and costly delays in delivering their products to foreign markets.    Additionally, these companies noted that some of FAA's internal processes, such as the prioritization of foreign approval applications and insufficient staff resources and expertise, also contributed to delays and increased cost in getting their products to foreign markets. Working within the limitations of national sovereignty and other factors, FAA has several initiatives underway aimed at alleviating current as well as heading off future challenges related to foreign approval.    GAO will continue to assist this committee by providing information and analysis on the certification process challenges and support committee efforts in considering these issues as part of the 2015 FAA Reauthorization Act.    Thank you, Mr. Chairman. This concludes my statement.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Dr. Dillingham.    Next, the Honorable Chris Hart, who is the Acting Chairman of the National Transportation Safety Board.    Mr. Hart, you may proceed.</t>
   </si>
   <si>
-    <t>Hart</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hart. Good morning, Chairman Shuster, Ranking Member DeFazio, and members of the committee. Thank you for inviting me to testify on behalf of the National Transportation Safety Board today.    For many years, the NTSB has investigated accidents and incidents that have identified issues regarding the FAA certification process. Most recently, we investigated smoke and flames coming from a lithium ion battery on board a Boeing 787 at Boston's Logan International Airport. From this investigation, we recommended to the FAA actions that will address issues that they will continue to see in the certification process, especially as new technologies are introduced at an accelerating pace.    The recommendations included: Identifying new technologies and the need to consult with outside experts regarding those technologies; ensuring an FAA workforce that has up-to-date training regarding the new technologies; and evaluating certification from a systems perspective, as you have already heard this morning.    In the U.S. certification process, delegation of the certification has been in practice for many years and is necessary to improve efficiency of the FAA in the certification process.    In its current form, Organization Designation Authority, or ODA, usually works well. It is a risk-based approach that many DOT modal agencies have adopted to use their resources more effectively and to focus their oversight on the riskiest areas. But as the NTSB has said, in many investigations, risk-based systems only work well when the regulator exercises effective oversight.    In other investigations, the NTSB has recognized the need for the FAA to improve the certification process in the following areas: Ensuring no single-point failure modes; accounting for wear-related failures; and including structural failures and human machine system interaction failures in the assessment of safety critical systems.    We are pleased with the action taken by the FAA last year regarding icing based on our investigation of two accidents in 1994 and 1997, outlined in my full testimony, but it is unfortunate that needed changes that we identified in both incidents and accidents have taken so long to implement.    Additionally, the NTSB has investigated events that illustrate shortcomings with flight standards. In the investigation of a January 2003 accident, the NTSB identified improper maintenance at a repair station where the owner had been previously employed as a chief inspector at a repair station that had its license revoked. We identified that the FAA did not have any regulations that enabled them to deny applications for part 145 repair stations of applicants that are associated with repair stations that previously had their license revoked. And we recommended that the FAA promulgate a regulation to implement this authority.    The FAA published a notice of proposed rulemaking in May of 2012, but more than 10 years after the accident, it has not yet issued a final rule on the subject.    As you prepare to reauthorize the FAA, the certification process is a very important component to consider. Also, the NTSB has several other safety recommendations that could improve safety of our aerospace system, including strengthening procedural compliance for pilots, expanding the use of recorders in general aviation aircraft and enhanced recorders in commercial aircraft, and oversight of public aircraft operations.    I would be happy to talk with you further about these topics as well. Thank you for inviting me to testify today. I would be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mr. Hart.    And next, Ms. Baker, who is the Director of the Aircraft Certification Service at the Federal Aviation Administration.    Ms. Baker, please proceed.</t>
   </si>
   <si>
-    <t>Baker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Baker. Chairman Shuster, Ranking Member DeFazio, members of the committee, thank you for the opportunity to speak with you today. As the Director of FAA's Aircraft Certification Service, I am responsible for the oversight of design, production, and continued operational safety of aircraft, engines, propellers, and articles. Overseeing the safety of the world's largest fleet of aircraft while simultaneously certifying innovative new products and technology is a challenge, but one that we recognize as critical to ensuring U.S. economic growth. As such, we continuously strive to improve the process.    The globalization of aviation, advances in technology, a high velocity of change, and heightened expectations from our stakeholders are all external forces driving us to reexamine how we conduct business. Since the 1920s, the FAA has relied on delegation to safely leverage the Government workforce. We apply safety management principles and use risk-based decisionmaking to leverage delegation and international partnerships and focus limited FAA resources. Today, we delegate 90 percent of certification activity. We are working to streamline the remainder.    My written statement includes an update on FAA's implementation of initiatives responsive to section 312 of the FAA Modernization and Reform Act of 2012. During implementation, it became clear that not all of industry's concerns can be addressed through national policy changes. Therefore, today, I would like to focus on how we are addressing certification reform at the local, national, and international level.    At the local level, we are reinvigorating concepts from the Certification Process Improvement Guide. This guide was developed in collaboration with industry over 10 years ago to improve cooperation and communication. Each company worked with their local office to define operating norms, develop an issue resolution process, and identify individual certification priorities.    Utilizing the same philosophy, the FAA will work with individual companies to establish short- and long-term goals to help them reach their vision of full utilization of the Organization Designation Authorization, or ODA. The FAA has also created an ODA scorecard to collect qualitative and quantitative data related to safety, FAA involvement, and ODA-holder compliance. On a local level, the scorecard will support constructive dialogue between the FAA management and ODA holders about compliance, timeliness, and performance improvements that may be needed.    At the national level, the roll up of the scorecard metrics will allow us to monitor the effectiveness and efficiency of all ODAs, help differentiate between national and local issues, and point to areas where policy improvements are necessary. Globally, the FAA has been the leading model for safety and efficiency around the world. Yet the aviation industry is made up of an international web of networks and complex business arrangements that are challenging our traditional regulatory model.    We are working with our global partners to leverage our bilateral agreements to facilitate the needs of industry. In 2013, we formed a Certification Management Team between the FAA, the European Aviation Safety Agency, and the authorities of Canada and Brazil. This team discusses means to standardize and streamline certification of aviation products by reducing duplicative processes.    I know the committee is also interested in the progress the FAA has made in response to section 312 of the act, which focused on the consistency and standardization of the regulatory interpretation. While the implementation plan for section 313 was formally posted on the FAA Web site yesterday, we have already taken steps to implement the recommendations. In fact, we have closed two of the six initiatives and the plan was supported by industry.    The highest priority initiative is to develop a single master source for guidance organized by regulations. We are making progress and reviewing our existing databases to ensure the information is up to date. A challenge we face is that Enterprise Architecture Assessment identified 21 separate FAA document repositories.    Last week, I participated in a demonstration of the proof of concept for the tool that will link the documents from multiple sources. This week, it will be presented to the Associate Administrator for Aviation Safety for approval of funding to proceed to field beta testing. I was impressed with the system's capability. It will link regulatory material not only by regulation, as requested by industry, but also by concept, in case the user doesn't know the regulatory citation.    In conclusion, the FAA has made progress on sections 312 and 313 of the act. We are conscious of the fact that certification reform is essential for economic growth of the United States, and we are working continuously to improve. The FAA is tracking the progress of implementing the initiatives, the performance outcomes, and the global return on investment for the FAA and industry.    The FAA will continue efforts to develop meaningful metrics that promote open, constructive dialogue, facilitate positive change, and hold industry accountable to compliance with the regulations and FAA accountable to increasing efficiency of certification.    Mr. Chairman, I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -1375,9 +1303,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. Thank you, Dr. Dillingham, for being back with us. It is good to see you again. I want to start with you to follow up. I know a lot has been discussed with regards to the ODA program, and it is my understanding that one of the biggest problems that we have is really with FAA engineers and specialists getting involved in the certification process, and essentially getting involved when the ODA has already authorized or conducted their review and duplicating efforts. And so in other words, the ODA is doing their job, and yet the FAA is retaining some of that work; is that correct?</t>
   </si>
   <si>
@@ -1430,9 +1355,6 @@
   </si>
   <si>
     <t>400630</t>
-  </si>
-  <si>
-    <t>Daniel Lipinski</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. I want to thank the witnesses for being here today. One of the biggest issues that I have been focused on during my time in this committee is streamlining the FAA's certification process to make sure that manufacturers can move innovative safety enhancing ideas from the design table to assembly line into the cockpit without months of delay in unnecessary cost which unfortunately has been happening all too often.    First question I wanted to ask Ms. Baker, Ms. Baker, sorry. I was lead Democratic co-sponsor of the Small Airplane Revitalization Act. I was pleased that Congress recognized and responded to the challenges posed by the certification process. Many of us on this committee and many at DOT and FAA did the rewrite of part 23 rules as vital to safety innovation. So I want to ask, what steps have you taken to move this rule forward? And where is the rulemaking being vetted today? Has it been received by DOT and OMB?</t>
@@ -1936,11 +1858,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1960,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1988,11 +1906,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2012,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2040,11 +1954,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2064,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2090,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2116,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2142,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2168,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2194,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2220,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2248,11 +2146,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2272,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2300,11 +2194,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2324,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2352,11 +2242,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2376,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2404,11 +2290,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2428,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2456,11 +2338,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2480,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2508,11 +2386,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2534,11 +2410,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2558,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2586,11 +2458,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2610,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2638,11 +2506,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2662,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2690,11 +2554,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2714,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>48</v>
-      </c>
-      <c r="H32" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2742,11 +2602,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2766,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2794,11 +2650,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2818,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2846,11 +2698,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2870,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2898,11 +2746,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2922,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2950,11 +2794,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2974,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3002,11 +2842,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3026,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3054,11 +2890,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3078,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3106,11 +2938,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3130,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3158,11 +2986,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3182,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3210,11 +3034,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3234,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3262,11 +3082,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3286,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3314,11 +3130,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3338,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3366,11 +3178,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3390,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3418,11 +3226,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3442,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3470,11 +3274,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3494,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G62" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3522,11 +3322,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3546,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3572,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G65" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3598,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3624,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>47</v>
-      </c>
-      <c r="G67" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3650,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3676,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3702,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3728,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3754,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3780,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G73" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3806,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3832,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>47</v>
-      </c>
-      <c r="G75" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3858,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3884,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3910,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3938,11 +3706,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3964,11 +3730,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3988,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-      <c r="G81" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4014,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G82" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4040,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4066,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4092,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4118,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G86" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4144,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4172,11 +3922,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4196,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4222,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G90" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4248,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
-      </c>
-      <c r="G91" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4274,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4300,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4326,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
-      </c>
-      <c r="G94" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4352,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4378,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
-      </c>
-      <c r="G96" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4404,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>113</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
-      <c r="H97" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4430,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
-      </c>
-      <c r="G98" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4456,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4482,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
-      </c>
-      <c r="G100" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4508,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
-      </c>
-      <c r="G101" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4534,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
-      </c>
-      <c r="G102" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4560,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>113</v>
-      </c>
-      <c r="G103" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4586,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4612,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>113</v>
-      </c>
-      <c r="G105" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4638,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4664,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4690,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4716,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>113</v>
-      </c>
-      <c r="G109" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4744,11 +4450,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4768,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>137</v>
-      </c>
-      <c r="G111" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4794,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
-      </c>
-      <c r="G112" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4822,11 +4522,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4846,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>47</v>
-      </c>
-      <c r="G114" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4874,11 +4570,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4898,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G116" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4924,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4950,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
-      </c>
-      <c r="G118" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4976,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>137</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5002,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
-      </c>
-      <c r="G120" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5028,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" t="s">
+        <v>127</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>138</v>
-      </c>
-      <c r="H121" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5054,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>47</v>
-      </c>
-      <c r="G122" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5080,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5106,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
-      </c>
-      <c r="G124" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5132,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>137</v>
-      </c>
-      <c r="G125" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5158,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>47</v>
-      </c>
-      <c r="G126" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5184,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>137</v>
-      </c>
-      <c r="G127" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5210,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>47</v>
-      </c>
-      <c r="G128" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5236,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>137</v>
-      </c>
-      <c r="G129" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5264,11 +4930,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5288,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>158</v>
-      </c>
-      <c r="G131" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5314,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
-      </c>
-      <c r="G132" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5340,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>158</v>
-      </c>
-      <c r="G133" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5366,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
-      </c>
-      <c r="G134" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5392,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>158</v>
-      </c>
-      <c r="G135" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5418,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
-      </c>
-      <c r="G136" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5444,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>158</v>
-      </c>
-      <c r="G137" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5470,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
-      </c>
-      <c r="G138" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5496,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>158</v>
-      </c>
-      <c r="G139" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5522,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
-      </c>
-      <c r="G140" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5548,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>158</v>
-      </c>
-      <c r="G141" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5574,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
-      </c>
-      <c r="G142" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5600,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" t="s">
+        <v>147</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>159</v>
-      </c>
-      <c r="H143" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5626,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
-      </c>
-      <c r="G144" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5652,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5678,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
-      </c>
-      <c r="G146" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5704,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>158</v>
-      </c>
-      <c r="G147" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5730,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
-      </c>
-      <c r="G148" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5756,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>158</v>
-      </c>
-      <c r="G149" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5782,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
-      </c>
-      <c r="G150" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5808,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>158</v>
-      </c>
-      <c r="G151" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5834,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>47</v>
-      </c>
-      <c r="G152" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5860,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5886,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
-      </c>
-      <c r="G154" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5912,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>158</v>
-      </c>
-      <c r="G155" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5938,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
-      </c>
-      <c r="G156" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5964,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>158</v>
-      </c>
-      <c r="G157" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5990,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
-      </c>
-      <c r="G158" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6016,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>158</v>
-      </c>
-      <c r="G159" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6042,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
-      </c>
-      <c r="G160" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6068,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>158</v>
-      </c>
-      <c r="G161" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6094,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
-      </c>
-      <c r="G162" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6120,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>158</v>
-      </c>
-      <c r="G163" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6146,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
-      </c>
-      <c r="G164" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6172,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>158</v>
-      </c>
-      <c r="G165" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6198,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>47</v>
-      </c>
-      <c r="G166" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6224,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>158</v>
-      </c>
-      <c r="G167" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6252,11 +5842,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6276,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
-      </c>
-      <c r="G169" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6302,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>47</v>
-      </c>
-      <c r="G170" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6328,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
-      </c>
-      <c r="G171" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6354,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
-      </c>
-      <c r="G172" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6380,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
-      </c>
-      <c r="G173" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6406,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
-      </c>
-      <c r="G174" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6432,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
-      </c>
-      <c r="G175" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6458,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
-      </c>
-      <c r="G176" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6484,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
-      </c>
-      <c r="G177" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6510,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
-      </c>
-      <c r="G178" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6536,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
-      </c>
-      <c r="G179" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6562,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
-      </c>
-      <c r="G180" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6588,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
-      </c>
-      <c r="G181" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
         <v>195</v>
-      </c>
-      <c r="H181" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6614,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>47</v>
-      </c>
-      <c r="G182" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6640,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>47</v>
-      </c>
-      <c r="G183" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6666,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>47</v>
-      </c>
-      <c r="G184" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6692,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>47</v>
-      </c>
-      <c r="G185" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6718,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
-      </c>
-      <c r="G186" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6744,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>47</v>
-      </c>
-      <c r="G187" t="s">
-        <v>195</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6770,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>47</v>
-      </c>
-      <c r="G188" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6798,11 +6346,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6822,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>217</v>
-      </c>
-      <c r="G190" t="s">
-        <v>218</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6850,11 +6394,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6874,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>221</v>
-      </c>
-      <c r="G192" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6900,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
-      </c>
-      <c r="G193" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6926,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>221</v>
-      </c>
-      <c r="G194" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6952,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>47</v>
-      </c>
-      <c r="G195" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6978,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>221</v>
-      </c>
-      <c r="G196" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7004,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
-      </c>
-      <c r="G197" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7030,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>221</v>
-      </c>
-      <c r="G198" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7056,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>47</v>
-      </c>
-      <c r="G199" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7082,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>221</v>
-      </c>
-      <c r="G200" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7108,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>47</v>
-      </c>
-      <c r="G201" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7134,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>221</v>
-      </c>
-      <c r="G202" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7160,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>47</v>
-      </c>
-      <c r="G203" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7186,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>221</v>
-      </c>
-      <c r="G204" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7212,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>47</v>
-      </c>
-      <c r="G205" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7238,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>221</v>
-      </c>
-      <c r="G206" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7264,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>47</v>
-      </c>
-      <c r="G207" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7290,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>221</v>
-      </c>
-      <c r="G208" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7316,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>47</v>
-      </c>
-      <c r="G209" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7342,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>221</v>
-      </c>
-      <c r="G210" t="s">
+        <v>207</v>
+      </c>
+      <c r="G210" t="s"/>
+      <c r="H210" t="s">
         <v>222</v>
-      </c>
-      <c r="H210" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7368,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>47</v>
-      </c>
-      <c r="G211" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7394,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>221</v>
-      </c>
-      <c r="G212" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7420,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
-      </c>
-      <c r="G213" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7446,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>221</v>
-      </c>
-      <c r="G214" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7472,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>47</v>
-      </c>
-      <c r="G215" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7498,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>221</v>
-      </c>
-      <c r="G216" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7524,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>47</v>
-      </c>
-      <c r="G217" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7550,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>221</v>
-      </c>
-      <c r="G218" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7576,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
-      </c>
-      <c r="G219" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7602,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>221</v>
-      </c>
-      <c r="G220" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7628,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
-      </c>
-      <c r="G221" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7654,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>221</v>
-      </c>
-      <c r="G222" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7680,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>47</v>
-      </c>
-      <c r="G223" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7706,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>221</v>
-      </c>
-      <c r="G224" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7732,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
-      </c>
-      <c r="G225" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7758,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>221</v>
-      </c>
-      <c r="G226" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7786,11 +7258,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7810,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>253</v>
-      </c>
-      <c r="G228" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7836,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>47</v>
-      </c>
-      <c r="G229" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7862,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>253</v>
-      </c>
-      <c r="G230" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7888,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>47</v>
-      </c>
-      <c r="G231" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7914,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>253</v>
-      </c>
-      <c r="G232" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7940,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>47</v>
-      </c>
-      <c r="G233" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7966,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>253</v>
-      </c>
-      <c r="G234" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7992,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
-      </c>
-      <c r="G235" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8018,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>253</v>
-      </c>
-      <c r="G236" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8044,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>47</v>
-      </c>
-      <c r="G237" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8070,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>253</v>
-      </c>
-      <c r="G238" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8096,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>47</v>
-      </c>
-      <c r="G239" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8122,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>253</v>
-      </c>
-      <c r="G240" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8150,11 +7594,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8174,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>267</v>
-      </c>
-      <c r="G242" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8200,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>47</v>
-      </c>
-      <c r="G243" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8226,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>267</v>
-      </c>
-      <c r="G244" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8252,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>47</v>
-      </c>
-      <c r="G245" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8278,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>267</v>
-      </c>
-      <c r="G246" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8304,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
-      </c>
-      <c r="G247" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8330,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>267</v>
-      </c>
-      <c r="G248" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8356,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>47</v>
-      </c>
-      <c r="G249" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8382,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>267</v>
-      </c>
-      <c r="G250" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8408,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>47</v>
-      </c>
-      <c r="G251" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8434,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>267</v>
-      </c>
-      <c r="G252" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8460,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
-      </c>
-      <c r="G253" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8486,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>267</v>
-      </c>
-      <c r="G254" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8512,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
-      </c>
-      <c r="G255" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8538,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>267</v>
-      </c>
-      <c r="G256" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8564,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>47</v>
-      </c>
-      <c r="G257" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8590,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>267</v>
-      </c>
-      <c r="G258" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8616,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>47</v>
-      </c>
-      <c r="G259" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8642,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>267</v>
-      </c>
-      <c r="G260" t="s">
+        <v>251</v>
+      </c>
+      <c r="G260" t="s"/>
+      <c r="H260" t="s">
         <v>268</v>
-      </c>
-      <c r="H260" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8668,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>47</v>
-      </c>
-      <c r="G261" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8694,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>267</v>
-      </c>
-      <c r="G262" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8720,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>47</v>
-      </c>
-      <c r="G263" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8748,11 +8146,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8772,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>267</v>
-      </c>
-      <c r="G265" t="s">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8800,11 +8194,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8824,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>47</v>
-      </c>
-      <c r="G267" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8852,11 +8242,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8876,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>47</v>
-      </c>
-      <c r="G269" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8904,11 +8290,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8928,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>47</v>
-      </c>
-      <c r="G271" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8956,11 +8338,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8980,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>47</v>
-      </c>
-      <c r="G273" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9008,11 +8386,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9032,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>40</v>
-      </c>
-      <c r="G275" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9060,11 +8434,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9084,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
-      </c>
-      <c r="G277" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9112,11 +8482,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9136,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>40</v>
-      </c>
-      <c r="G279" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9162,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>47</v>
-      </c>
-      <c r="G280" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9188,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>40</v>
-      </c>
-      <c r="G281" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9214,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>47</v>
-      </c>
-      <c r="G282" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9240,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>40</v>
-      </c>
-      <c r="G283" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9268,11 +8626,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9292,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>309</v>
-      </c>
-      <c r="G285" t="s">
-        <v>310</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9318,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
-      </c>
-      <c r="G286" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9344,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>309</v>
-      </c>
-      <c r="G287" t="s">
-        <v>310</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9370,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>47</v>
-      </c>
-      <c r="G288" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9396,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>309</v>
-      </c>
-      <c r="G289" t="s">
-        <v>310</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9424,11 +8770,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9448,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>317</v>
-      </c>
-      <c r="G291" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9474,13 +8816,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>47</v>
-      </c>
-      <c r="G292" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9500,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>317</v>
-      </c>
-      <c r="G293" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9526,13 +8864,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>47</v>
-      </c>
-      <c r="G294" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9552,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>317</v>
-      </c>
-      <c r="G295" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9578,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>47</v>
-      </c>
-      <c r="G296" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9604,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>317</v>
-      </c>
-      <c r="G297" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9630,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>47</v>
-      </c>
-      <c r="G298" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9656,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>317</v>
-      </c>
-      <c r="G299" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9682,13 +9008,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>47</v>
-      </c>
-      <c r="G300" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9708,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>317</v>
-      </c>
-      <c r="G301" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9734,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>47</v>
-      </c>
-      <c r="G302" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9760,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>317</v>
-      </c>
-      <c r="G303" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9786,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
-      </c>
-      <c r="G304" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9812,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>317</v>
-      </c>
-      <c r="G305" t="s">
-        <v>318</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9840,11 +9154,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>12</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9864,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>334</v>
-      </c>
-      <c r="G307" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9890,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>47</v>
-      </c>
-      <c r="G308" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9916,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>334</v>
-      </c>
-      <c r="G309" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9942,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>47</v>
-      </c>
-      <c r="G310" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9968,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>334</v>
-      </c>
-      <c r="G311" t="s">
-        <v>335</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9996,11 +9298,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>12</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10020,13 +9320,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>342</v>
-      </c>
-      <c r="G313" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10046,13 +9344,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>47</v>
-      </c>
-      <c r="G314" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10072,13 +9368,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>342</v>
-      </c>
-      <c r="G315" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10098,13 +9392,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>47</v>
-      </c>
-      <c r="G316" t="s">
-        <v>53</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10126,11 +9418,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10152,11 +9442,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10176,13 +9464,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>342</v>
-      </c>
-      <c r="G319" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10204,11 +9490,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10228,13 +9512,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>14</v>
-      </c>
-      <c r="G321" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10256,11 +9538,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10280,13 +9560,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>14</v>
-      </c>
-      <c r="G323" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10308,11 +9586,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10332,13 +9608,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>47</v>
-      </c>
-      <c r="G325" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10360,11 +9634,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10384,13 +9656,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>47</v>
-      </c>
-      <c r="G327" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10412,11 +9682,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10436,13 +9704,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>47</v>
-      </c>
-      <c r="G329" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10464,11 +9730,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10488,13 +9752,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>47</v>
-      </c>
-      <c r="G331" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10516,11 +9778,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10540,13 +9800,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>47</v>
-      </c>
-      <c r="G333" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10568,11 +9826,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>12</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10592,13 +9848,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
-      </c>
-      <c r="G335" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10620,11 +9874,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10644,13 +9896,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>14</v>
-      </c>
-      <c r="G337" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10670,13 +9920,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>47</v>
-      </c>
-      <c r="G338" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10696,13 +9944,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>14</v>
-      </c>
-      <c r="G339" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10722,13 +9968,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>47</v>
-      </c>
-      <c r="G340" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10748,13 +9992,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>14</v>
-      </c>
-      <c r="G341" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10774,13 +10016,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>47</v>
-      </c>
-      <c r="G342" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10800,13 +10040,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>14</v>
-      </c>
-      <c r="G343" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10826,13 +10064,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>47</v>
-      </c>
-      <c r="G344" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10852,13 +10088,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>14</v>
-      </c>
-      <c r="G345" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10878,13 +10112,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>47</v>
-      </c>
-      <c r="G346" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10904,13 +10136,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>14</v>
-      </c>
-      <c r="G347" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10930,13 +10160,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>47</v>
-      </c>
-      <c r="G348" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10956,13 +10184,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>14</v>
-      </c>
-      <c r="G349" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10982,13 +10208,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>47</v>
-      </c>
-      <c r="G350" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11008,13 +10232,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>14</v>
-      </c>
-      <c r="G351" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11034,13 +10256,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>47</v>
-      </c>
-      <c r="G352" t="s">
+        <v>41</v>
+      </c>
+      <c r="G352" t="s"/>
+      <c r="H352" t="s">
         <v>361</v>
-      </c>
-      <c r="H352" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11060,13 +10280,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>14</v>
-      </c>
-      <c r="G353" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11086,13 +10304,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>253</v>
-      </c>
-      <c r="G354" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11112,13 +10328,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>342</v>
-      </c>
-      <c r="G355" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11138,13 +10352,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>47</v>
-      </c>
-      <c r="G356" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11164,13 +10376,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>342</v>
-      </c>
-      <c r="G357" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11190,13 +10400,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>47</v>
-      </c>
-      <c r="G358" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11216,13 +10424,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>342</v>
-      </c>
-      <c r="G359" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11242,13 +10448,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>47</v>
-      </c>
-      <c r="G360" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11268,13 +10472,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>342</v>
-      </c>
-      <c r="G361" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11294,13 +10496,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>47</v>
-      </c>
-      <c r="G362" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11320,13 +10520,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>342</v>
-      </c>
-      <c r="G363" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11346,13 +10544,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>47</v>
-      </c>
-      <c r="G364" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11372,13 +10568,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>342</v>
-      </c>
-      <c r="G365" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11398,13 +10592,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>47</v>
-      </c>
-      <c r="G366" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11424,13 +10616,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>342</v>
-      </c>
-      <c r="G367" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11450,13 +10640,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>47</v>
-      </c>
-      <c r="G368" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11476,13 +10664,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>342</v>
-      </c>
-      <c r="G369" t="s">
-        <v>343</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11502,13 +10688,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>253</v>
-      </c>
-      <c r="G370" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11528,13 +10712,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>158</v>
-      </c>
-      <c r="G371" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11554,13 +10736,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>47</v>
-      </c>
-      <c r="G372" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11580,13 +10760,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>158</v>
-      </c>
-      <c r="G373" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11606,13 +10784,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>47</v>
-      </c>
-      <c r="G374" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11632,13 +10808,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>158</v>
-      </c>
-      <c r="G375" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11658,13 +10832,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>47</v>
-      </c>
-      <c r="G376" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11684,13 +10856,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>158</v>
-      </c>
-      <c r="G377" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11710,13 +10880,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>47</v>
-      </c>
-      <c r="G378" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11736,13 +10904,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>158</v>
-      </c>
-      <c r="G379" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11762,13 +10928,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>47</v>
-      </c>
-      <c r="G380" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11788,13 +10952,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>158</v>
-      </c>
-      <c r="G381" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11814,13 +10976,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>253</v>
-      </c>
-      <c r="G382" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11840,13 +11000,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>158</v>
-      </c>
-      <c r="G383" t="s">
-        <v>159</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11866,13 +11024,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>253</v>
-      </c>
-      <c r="G384" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11892,13 +11048,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>137</v>
-      </c>
-      <c r="G385" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11918,13 +11072,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>47</v>
-      </c>
-      <c r="G386" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11944,13 +11096,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>137</v>
-      </c>
-      <c r="G387" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11970,13 +11120,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>47</v>
-      </c>
-      <c r="G388" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11996,13 +11144,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>137</v>
-      </c>
-      <c r="G389" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12022,13 +11168,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>47</v>
-      </c>
-      <c r="G390" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12048,13 +11192,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>137</v>
-      </c>
-      <c r="G391" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12074,13 +11216,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>47</v>
-      </c>
-      <c r="G392" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12100,13 +11240,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>137</v>
-      </c>
-      <c r="G393" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12126,13 +11264,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>47</v>
-      </c>
-      <c r="G394" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12152,13 +11288,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>137</v>
-      </c>
-      <c r="G395" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12178,13 +11312,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>47</v>
-      </c>
-      <c r="G396" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12204,13 +11336,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>137</v>
-      </c>
-      <c r="G397" t="s">
-        <v>138</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12230,13 +11360,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>253</v>
-      </c>
-      <c r="G398" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12256,13 +11384,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>221</v>
-      </c>
-      <c r="G399" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12282,13 +11408,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>47</v>
-      </c>
-      <c r="G400" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12308,13 +11432,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>221</v>
-      </c>
-      <c r="G401" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12334,13 +11456,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>47</v>
-      </c>
-      <c r="G402" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12360,13 +11480,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>221</v>
-      </c>
-      <c r="G403" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12386,13 +11504,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>47</v>
-      </c>
-      <c r="G404" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12412,13 +11528,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>221</v>
-      </c>
-      <c r="G405" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12438,13 +11552,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>47</v>
-      </c>
-      <c r="G406" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12464,13 +11576,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>221</v>
-      </c>
-      <c r="G407" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12490,13 +11600,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>47</v>
-      </c>
-      <c r="G408" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12516,13 +11624,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>47</v>
-      </c>
-      <c r="G409" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12542,13 +11648,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>221</v>
-      </c>
-      <c r="G410" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12568,13 +11672,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>47</v>
-      </c>
-      <c r="G411" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12594,13 +11696,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>221</v>
-      </c>
-      <c r="G412" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12620,13 +11720,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>47</v>
-      </c>
-      <c r="G413" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12646,13 +11744,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>221</v>
-      </c>
-      <c r="G414" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12672,13 +11768,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>47</v>
-      </c>
-      <c r="G415" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12698,13 +11792,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>221</v>
-      </c>
-      <c r="G416" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12724,13 +11816,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>47</v>
-      </c>
-      <c r="G417" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12750,13 +11840,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>221</v>
-      </c>
-      <c r="G418" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12776,13 +11864,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>47</v>
-      </c>
-      <c r="G419" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12802,13 +11888,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>221</v>
-      </c>
-      <c r="G420" t="s">
-        <v>222</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12828,13 +11912,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>253</v>
-      </c>
-      <c r="G421" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12854,13 +11936,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>452</v>
-      </c>
-      <c r="G422" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12880,13 +11960,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>47</v>
-      </c>
-      <c r="G423" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12906,13 +11984,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>452</v>
-      </c>
-      <c r="G424" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12932,13 +12008,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>47</v>
-      </c>
-      <c r="G425" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12958,13 +12032,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>452</v>
-      </c>
-      <c r="G426" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12984,13 +12056,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>47</v>
-      </c>
-      <c r="G427" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13010,13 +12080,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>452</v>
-      </c>
-      <c r="G428" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13036,13 +12104,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>47</v>
-      </c>
-      <c r="G429" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13062,13 +12128,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>47</v>
-      </c>
-      <c r="G430" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13088,13 +12152,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>452</v>
-      </c>
-      <c r="G431" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13114,13 +12176,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>47</v>
-      </c>
-      <c r="G432" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13140,13 +12200,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>452</v>
-      </c>
-      <c r="G433" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13166,13 +12224,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>47</v>
-      </c>
-      <c r="G434" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13192,13 +12248,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>452</v>
-      </c>
-      <c r="G435" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13218,13 +12272,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>47</v>
-      </c>
-      <c r="G436" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13244,13 +12296,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>452</v>
-      </c>
-      <c r="G437" t="s">
-        <v>453</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13270,13 +12320,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>253</v>
-      </c>
-      <c r="G438" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13296,13 +12344,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>471</v>
-      </c>
-      <c r="G439" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13322,13 +12368,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>47</v>
-      </c>
-      <c r="G440" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13348,13 +12392,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>471</v>
-      </c>
-      <c r="G441" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13374,13 +12416,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>47</v>
-      </c>
-      <c r="G442" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13400,13 +12440,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>471</v>
-      </c>
-      <c r="G443" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13426,13 +12464,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>47</v>
-      </c>
-      <c r="G444" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13452,13 +12488,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>471</v>
-      </c>
-      <c r="G445" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13478,13 +12512,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>47</v>
-      </c>
-      <c r="G446" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13504,13 +12536,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>471</v>
-      </c>
-      <c r="G447" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13530,13 +12560,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>47</v>
-      </c>
-      <c r="G448" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13556,13 +12584,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>471</v>
-      </c>
-      <c r="G449" t="s">
-        <v>472</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13582,13 +12608,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>47</v>
-      </c>
-      <c r="G450" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13608,13 +12632,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>253</v>
-      </c>
-      <c r="G451" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13634,13 +12656,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>47</v>
-      </c>
-      <c r="G452" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13660,13 +12680,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>253</v>
-      </c>
-      <c r="G453" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13686,13 +12704,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>47</v>
-      </c>
-      <c r="G454" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13712,13 +12728,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>253</v>
-      </c>
-      <c r="G455" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13738,13 +12752,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>47</v>
-      </c>
-      <c r="G456" t="s">
-        <v>355</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13764,13 +12776,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>253</v>
-      </c>
-      <c r="G457" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13790,13 +12800,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>47</v>
-      </c>
-      <c r="G458" t="s">
-        <v>358</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13816,13 +12824,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>253</v>
-      </c>
-      <c r="G459" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13842,13 +12848,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>47</v>
-      </c>
-      <c r="G460" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13868,13 +12872,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>253</v>
-      </c>
-      <c r="G461" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13894,13 +12896,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>47</v>
-      </c>
-      <c r="G462" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13920,13 +12920,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>253</v>
-      </c>
-      <c r="G463" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13946,13 +12944,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>47</v>
-      </c>
-      <c r="G464" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13972,13 +12968,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>253</v>
-      </c>
-      <c r="G465" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13998,13 +12992,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>47</v>
-      </c>
-      <c r="G466" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14024,13 +13016,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>253</v>
-      </c>
-      <c r="G467" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14050,13 +13040,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>47</v>
-      </c>
-      <c r="G468" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14076,13 +13064,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>253</v>
-      </c>
-      <c r="G469" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14102,13 +13088,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>47</v>
-      </c>
-      <c r="G470" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14128,13 +13112,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>253</v>
-      </c>
-      <c r="G471" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14154,13 +13136,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>47</v>
-      </c>
-      <c r="G472" t="s">
-        <v>361</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14180,13 +13160,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>253</v>
-      </c>
-      <c r="G473" t="s">
-        <v>254</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
